--- a/monk_flurry_move.xlsx
+++ b/monk_flurry_move.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Small</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Required starting move</t>
+  </si>
+  <si>
+    <t>Extra move after full attack</t>
   </si>
 </sst>
 </file>
@@ -82,12 +85,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -96,21 +100,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -411,67 +415,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="J3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <f>MIN(INT((D$2+$B3-$G$3+5)/(5+5)),$C3)</f>
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <f>MIN(INT((E$2+$B3-$G$3+5)/(5+5)),$C3)</f>
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -480,56 +473,83 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:E22" si="0">MIN(INT((D$2+$B4-$G$3+5)/(5+5)),$C4)</f>
+        <f>MIN(INT((D$3+$B4-$J$4+5)/(5+5)),$C4)</f>
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>MIN(INT((E$3+$B4-$J$4+5)/(5+5)),$C4)</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>(D$3+$B4-$J$4+5)-$C4*10</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>(E$3+$B4-$J$4+5)-$C4*10</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>MIN(INT((D$3+$B5-$J$4+5)/(5+5)),$C5)</f>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>MIN(INT((E$3+$B5-$J$4+5)/(5+5)),$C5)</f>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f>(D$3+$B5-$J$4+5)-$C5*10</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>(E$3+$B5-$J$4+5)-$C5*10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>MIN(INT((D$3+$B6-$J$4+5)/(5+5)),$C6)</f>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f>MIN(INT((E$3+$B6-$J$4+5)/(5+5)),$C6)</f>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f>(D$3+$B6-$J$4+5)-$C6*10</f>
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f>(E$3+$B6-$J$4+5)-$C6*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
       <c r="B7">
         <v>10</v>
       </c>
@@ -537,36 +557,52 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f>MIN(INT((D$3+$B7-$J$4+5)/(5+5)),$C7)</f>
         <v>2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f>MIN(INT((E$3+$B7-$J$4+5)/(5+5)),$C7)</f>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f>(D$3+$B7-$J$4+5)-$C7*10</f>
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f>(E$3+$B7-$J$4+5)-$C7*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f>MIN(INT((D$3+$B8-$J$4+5)/(5+5)),$C8)</f>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f>MIN(INT((E$3+$B8-$J$4+5)/(5+5)),$C8)</f>
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f>(D$3+$B8-$J$4+5)-$C8*10</f>
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <f>(E$3+$B8-$J$4+5)-$C8*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -575,55 +611,79 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f>MIN(INT((D$3+$B9-$J$4+5)/(5+5)),$C9)</f>
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>MIN(INT((E$3+$B9-$J$4+5)/(5+5)),$C9)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>(D$3+$B9-$J$4+5)-$C9*10</f>
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <f>(E$3+$B9-$J$4+5)-$C9*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f>MIN(INT((D$3+$B10-$J$4+5)/(5+5)),$C10)</f>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f>MIN(INT((E$3+$B10-$J$4+5)/(5+5)),$C10)</f>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f>(D$3+$B10-$J$4+5)-$C10*10</f>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f>(E$3+$B10-$J$4+5)-$C10*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
       <c r="B11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>MIN(INT((D$3+$B11-$J$4+5)/(5+5)),$C11)</f>
         <v>4</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>MIN(INT((E$3+$B11-$J$4+5)/(5+5)),$C11)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>(D$3+$B11-$J$4+5)-$C11*10</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>(E$3+$B11-$J$4+5)-$C11*10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -632,55 +692,79 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f>MIN(INT((D$3+$B12-$J$4+5)/(5+5)),$C12)</f>
         <v>4</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>MIN(INT((E$3+$B12-$J$4+5)/(5+5)),$C12)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>(D$3+$B12-$J$4+5)-$C12*10</f>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f>(E$3+$B12-$J$4+5)-$C12*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>30</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>MIN(INT((D$3+$B13-$J$4+5)/(5+5)),$C13)</f>
+        <v>4</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f>MIN(INT((E$3+$B13-$J$4+5)/(5+5)),$C13)</f>
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f>(D$3+$B13-$J$4+5)-$C13*10</f>
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <f>(E$3+$B13-$J$4+5)-$C13*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f>MIN(INT((D$3+$B14-$J$4+5)/(5+5)),$C14)</f>
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f>MIN(INT((E$3+$B14-$J$4+5)/(5+5)),$C14)</f>
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <f>(D$3+$B14-$J$4+5)-$C14*10</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>(E$3+$B14-$J$4+5)-$C14*10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>12</v>
-      </c>
-      <c r="B14">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
       </c>
       <c r="B15">
         <v>40</v>
@@ -689,17 +773,25 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f>MIN(INT((D$3+$B15-$J$4+5)/(5+5)),$C15)</f>
         <v>5</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f>MIN(INT((E$3+$B15-$J$4+5)/(5+5)),$C15)</f>
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>(D$3+$B15-$J$4+5)-$C15*10</f>
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <f>(E$3+$B15-$J$4+5)-$C15*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>40</v>
@@ -708,55 +800,79 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>MIN(INT((D$3+$B16-$J$4+5)/(5+5)),$C16)</f>
         <v>5</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <f>MIN(INT((E$3+$B16-$J$4+5)/(5+5)),$C16)</f>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f>(D$3+$B16-$J$4+5)-$C16*10</f>
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <f>(E$3+$B16-$J$4+5)-$C16*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <f>MIN(INT((D$3+$B17-$J$4+5)/(5+5)),$C17)</f>
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <f>MIN(INT((E$3+$B17-$J$4+5)/(5+5)),$C17)</f>
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <f>(D$3+$B17-$J$4+5)-$C17*10</f>
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <f>(E$3+$B17-$J$4+5)-$C17*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>15</v>
-      </c>
-      <c r="B17">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
       </c>
       <c r="B18">
         <v>50</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>MIN(INT((D$3+$B18-$J$4+5)/(5+5)),$C18)</f>
+        <v>6</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <f>MIN(INT((E$3+$B18-$J$4+5)/(5+5)),$C18)</f>
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <f>(D$3+$B18-$J$4+5)-$C18*10</f>
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <f>(E$3+$B18-$J$4+5)-$C18*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -765,36 +881,52 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f>MIN(INT((D$3+$B19-$J$4+5)/(5+5)),$C19)</f>
         <v>7</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <f>MIN(INT((E$3+$B19-$J$4+5)/(5+5)),$C19)</f>
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <f>(D$3+$B19-$J$4+5)-$C19*10</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>(E$3+$B19-$J$4+5)-$C19*10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <f>MIN(INT((D$3+$B20-$J$4+5)/(5+5)),$C20)</f>
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <f>MIN(INT((E$3+$B20-$J$4+5)/(5+5)),$C20)</f>
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <f>(D$3+$B20-$J$4+5)-$C20*10</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>(E$3+$B20-$J$4+5)-$C20*10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>18</v>
-      </c>
-      <c r="B20">
-        <v>60</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -803,17 +935,25 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f>MIN(INT((D$3+$B21-$J$4+5)/(5+5)),$C21)</f>
         <v>7</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <f>MIN(INT((E$3+$B21-$J$4+5)/(5+5)),$C21)</f>
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <f>(D$3+$B21-$J$4+5)-$C21*10</f>
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <f>(E$3+$B21-$J$4+5)-$C21*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>60</v>
@@ -822,21 +962,56 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f>MIN(INT((D$3+$B22-$J$4+5)/(5+5)),$C22)</f>
         <v>7</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>MIN(INT((E$3+$B22-$J$4+5)/(5+5)),$C22)</f>
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <f>(D$3+$B22-$J$4+5)-$C22*10</f>
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <f>(E$3+$B22-$J$4+5)-$C22*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <f>MIN(INT((D$3+$B23-$J$4+5)/(5+5)),$C23)</f>
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <f>MIN(INT((E$3+$B23-$J$4+5)/(5+5)),$C23)</f>
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <f>(D$3+$B23-$J$4+5)-$C23*10</f>
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <f>(E$3+$B23-$J$4+5)-$C23*10</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:E22">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>$C3</formula>
+  <conditionalFormatting sqref="D4:E23">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>$C4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>$C3</formula>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>$C4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
